--- a/biology/Botanique/Allée_Jeanne-Villepreux-Power/Allée_Jeanne-Villepreux-Power.xlsx
+++ b/biology/Botanique/Allée_Jeanne-Villepreux-Power/Allée_Jeanne-Villepreux-Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>All%C3%A9e_Jeanne-Villepreux-Power</t>
+          <t>Allée_Jeanne-Villepreux-Power</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’allée Jeanne-Villepreux-Power est une allée du 12e arrondissement de Paris, qui constitue l'une des entrées du bois de Vincennes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All%C3%A9e_Jeanne-Villepreux-Power</t>
+          <t>Allée_Jeanne-Villepreux-Power</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'allée à l'entrée du Bois de Vincennes, face à l'Aquarium du palais de la Porte-Dorée.
 Elle débute avenue Daumesnil et finit route de la Croix-Rouge, à l'intérieur du bois.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>All%C3%A9e_Jeanne-Villepreux-Power</t>
+          <t>Allée_Jeanne-Villepreux-Power</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle tire son nom de la naturaliste française Jeanne Villepreux-Power, pionnière de l'aquariologie.
-Ce nom lui a été donné en 2019 par le Conseil de Paris[1].
+Ce nom lui a été donné en 2019 par le Conseil de Paris.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>All%C3%A9e_Jeanne-Villepreux-Power</t>
+          <t>Allée_Jeanne-Villepreux-Power</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Palais de la Porte-Dorée
 Aquarium du palais de la Porte-Dorée
